--- a/診断者_ログイン画面_エビデンス.xlsx
+++ b/診断者_ログイン画面_エビデンス.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D484956-4248-4E25-84B9-F978DC34620C}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FC2CA3-03A2-4947-98A0-DA2375ADD5D3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -554,12 +554,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,15 +565,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -618,9 +606,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +617,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,22 +652,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132609</xdr:rowOff>
+      <xdr:colOff>436563</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>135871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967BE1D0-2FE6-286E-D962-31E392626F60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FE79AE-F937-EA95-C440-B7CB3EC3AA0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,8 +683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269877" y="928688"/>
-          <a:ext cx="5635624" cy="4315671"/>
+          <a:off x="269876" y="928689"/>
+          <a:ext cx="5834062" cy="4795182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,21 +702,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>631120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
+      <xdr:colOff>656773</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="49" name="図 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF52C7D-B8AC-DC17-0179-3F7F0931AD81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA8A3AC-35DE-60CE-051F-9BA247701164}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,8 +732,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="1150939"/>
-          <a:ext cx="6674959" cy="4849812"/>
+          <a:off x="269875" y="66722626"/>
+          <a:ext cx="6728961" cy="4921250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>785813</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>214252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957C4CA1-D0F2-DE4B-0756-C5933C471A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="51760438"/>
+          <a:ext cx="5643562" cy="4127439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>928688</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>39579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA12B46C-3C84-5CDD-7E24-C6BD13840682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="38655625"/>
+          <a:ext cx="5786437" cy="4873517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>909965</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB672A7-FF0D-F3A2-9270-8D6304025D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="33821689"/>
+          <a:ext cx="5767715" cy="4857749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>976313</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>79691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4569E5DB-8EE5-7551-D5E0-F467B66F7769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="20716876"/>
+          <a:ext cx="5834062" cy="4913628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>968375</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10D74D8-1915-C038-518F-59C8D25AA1AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269877" y="15882940"/>
+          <a:ext cx="5826123" cy="4786310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E62FE2E-5C54-9A72-97CA-DEFCCEE46D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="5984876"/>
+          <a:ext cx="6080125" cy="4778374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>191432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA558C7-838E-4BDA-B686-4ECF7A858B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="1150938"/>
+          <a:ext cx="5834062" cy="4795182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,16 +1052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>140246</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>706437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>195809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>953634</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185965</xdr:rowOff>
+      <xdr:colOff>366259</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -771,8 +1076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5213804" y="3995603"/>
-          <a:ext cx="2089830" cy="726076"/>
+          <a:off x="4619625" y="4339184"/>
+          <a:ext cx="2088697" cy="736281"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -830,15 +1135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>869721</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7936</xdr:rowOff>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>843643</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>172357</xdr:rowOff>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -853,8 +1158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2357435" y="4316865"/>
-          <a:ext cx="2405065" cy="391206"/>
+          <a:off x="2028597" y="3952874"/>
+          <a:ext cx="2106842" cy="396876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,15 +1201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>608922</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>29481</xdr:rowOff>
+      <xdr:colOff>362860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>671287</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -919,8 +1224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2096636" y="5018767"/>
-          <a:ext cx="2493508" cy="496661"/>
+          <a:off x="1847173" y="4577669"/>
+          <a:ext cx="2097765" cy="470582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,62 +1264,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631599</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>16223</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33377B76-3E95-BB7E-26F0-2B8EB3777251}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="5984876"/>
-          <a:ext cx="6675438" cy="4850160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1199697</xdr:colOff>
+      <xdr:colOff>906009</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>112259</xdr:rowOff>
+      <xdr:rowOff>72573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>970643</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:colOff>579437</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>214314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1029,8 +1290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3902983" y="8503330"/>
-          <a:ext cx="986517" cy="404814"/>
+          <a:off x="3604759" y="8589511"/>
+          <a:ext cx="887866" cy="371928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,15 +1333,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>417286</xdr:colOff>
+      <xdr:colOff>36286</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>192769</xdr:rowOff>
+      <xdr:rowOff>137206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
+      <xdr:rowOff>89580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1095,8 +1356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5551715" y="7903483"/>
-          <a:ext cx="2966356" cy="1086303"/>
+          <a:off x="5163911" y="7963581"/>
+          <a:ext cx="2964089" cy="1103312"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1159,106 +1420,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687158</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>631120</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C0CD18-EAEA-4095-9B65-3B5A3990ED3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="10818813"/>
-          <a:ext cx="6674959" cy="4849812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631599</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>16222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F89B4B-5C60-15A9-B5C1-B9489054E453}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="16113125"/>
-          <a:ext cx="6675438" cy="4850160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28347</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>902606</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>72933</xdr:rowOff>
+      <xdr:colOff>365124</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1273,8 +1446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5162776" y="19077215"/>
-          <a:ext cx="2089830" cy="726075"/>
+          <a:off x="4600346" y="18894654"/>
+          <a:ext cx="2106841" cy="901472"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1324,15 +1497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>909409</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>113753</xdr:rowOff>
+      <xdr:colOff>615721</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>121691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1347,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2397123" y="19390539"/>
-          <a:ext cx="2338163" cy="394247"/>
+          <a:off x="2100034" y="18997066"/>
+          <a:ext cx="2114779" cy="362498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,15 +1563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>623661</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>53656</xdr:rowOff>
+      <xdr:colOff>393475</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>21906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1413,8 +1586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2111375" y="19784013"/>
-          <a:ext cx="2460625" cy="445273"/>
+          <a:off x="1877788" y="19357656"/>
+          <a:ext cx="2146526" cy="390844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,62 +1626,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644070</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>27960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BC6E14-E968-64C6-FB54-CA7FE94C943C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="20637500"/>
-          <a:ext cx="6721927" cy="4790460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1179286</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
+      <xdr:colOff>766537</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>142872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>970643</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
+      <xdr:colOff>436563</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1523,8 +1652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3882572" y="23251203"/>
-          <a:ext cx="1006928" cy="407083"/>
+          <a:off x="3465287" y="23391810"/>
+          <a:ext cx="884464" cy="404815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,16 +1694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342446</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1144133</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>877660</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>133803</xdr:rowOff>
+      <xdr:colOff>464910</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>189366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1589,8 +1718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476875" y="22633214"/>
-          <a:ext cx="2966356" cy="1086303"/>
+          <a:off x="5057321" y="22795366"/>
+          <a:ext cx="2964089" cy="1103313"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1645,106 +1774,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631599</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>16222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAACD0F6-396B-4348-BEA4-B219511160D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="25400000"/>
-          <a:ext cx="6709456" cy="4778722"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644071</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>121438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22FB6C0-722D-DF85-B6C0-9B1541670566}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="33582429"/>
-          <a:ext cx="6721928" cy="4883938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>888999</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>77107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>861785</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1759,8 +1800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2376713" y="36802786"/>
-          <a:ext cx="2403929" cy="444500"/>
+          <a:off x="2079625" y="36661045"/>
+          <a:ext cx="2079625" cy="407080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,16 +1842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>157614</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>697364</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>172358</xdr:rowOff>
+      <xdr:rowOff>124732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1152070</xdr:colOff>
+      <xdr:colOff>477383</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>61232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1825,8 +1866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5292043" y="36249429"/>
-          <a:ext cx="2210027" cy="1070428"/>
+          <a:off x="4610552" y="36708670"/>
+          <a:ext cx="2208894" cy="1087437"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1900,15 +1941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>144369</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>41181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>664482</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1923,8 +1964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2122714" y="37582155"/>
-          <a:ext cx="2460625" cy="445273"/>
+          <a:off x="1865313" y="37315681"/>
+          <a:ext cx="2143125" cy="435069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,62 +2004,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>263073</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644072</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>10102</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0AD0E5-DC1F-34B8-C9BD-0DFE598A6B5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="263073" y="38453787"/>
-          <a:ext cx="6730999" cy="4890529"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1188357</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>64632</xdr:rowOff>
+      <xdr:colOff>751794</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>120194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>979714</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2033,8 +2030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3891643" y="41130989"/>
-          <a:ext cx="1006928" cy="407083"/>
+          <a:off x="3450544" y="41307882"/>
+          <a:ext cx="859519" cy="387806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2075,16 +2072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>351517</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1010329</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>222251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>886731</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:colOff>331106</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2099,8 +2096,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5485946" y="40513000"/>
-          <a:ext cx="2966356" cy="1086303"/>
+          <a:off x="4923517" y="40719376"/>
+          <a:ext cx="2964089" cy="1103311"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2155,106 +2152,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>263071</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>9073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>130511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A529ED4-EBE5-436A-85D6-1FE96BADAB37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="263071" y="43343287"/>
-          <a:ext cx="6721928" cy="4883938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>639240</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE567694-BF52-A0D2-A720-6D1CAA10D77A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="51516644"/>
-          <a:ext cx="6717097" cy="4880428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>607786</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>144369</xdr:rowOff>
+      <xdr:colOff>552223</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>199931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>637268</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2269,8 +2178,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="55516369"/>
-          <a:ext cx="2460625" cy="445273"/>
+          <a:off x="2036536" y="54722619"/>
+          <a:ext cx="1821089" cy="395381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,15 +2221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>861785</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
+      <xdr:colOff>726848</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>114527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>834571</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2335,8 +2244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2349499" y="55072643"/>
-          <a:ext cx="2403929" cy="444500"/>
+          <a:off x="2211161" y="54407027"/>
+          <a:ext cx="1797278" cy="369661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2377,16 +2286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>130400</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606650</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1124856</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:colOff>386669</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>82776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2401,8 +2310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5264829" y="54519286"/>
-          <a:ext cx="2210027" cy="1070428"/>
+          <a:off x="4519838" y="54211991"/>
+          <a:ext cx="2208894" cy="1084035"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2465,62 +2374,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>117930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>651726</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>18144</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FEBF7D-3494-7861-1EAB-1EF450999C47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="56397073"/>
-          <a:ext cx="6729583" cy="4889500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1188357</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>73704</xdr:rowOff>
+      <xdr:colOff>1212169</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>161016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>979714</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2535,8 +2400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3891643" y="59074275"/>
-          <a:ext cx="1006928" cy="407083"/>
+          <a:off x="3910919" y="69415704"/>
+          <a:ext cx="891269" cy="362859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,15 +2443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>351517</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:colOff>264204</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>199573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>886731</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>88446</xdr:rowOff>
+      <xdr:colOff>799418</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>151946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2601,8 +2466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5485946" y="58456286"/>
-          <a:ext cx="2966356" cy="1086303"/>
+          <a:off x="5391829" y="68763698"/>
+          <a:ext cx="2964089" cy="1103311"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2661,58 +2526,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>639240</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB1BF92-0ECD-40D6-A42B-FD43BD4AD111}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="61268429"/>
-          <a:ext cx="6717097" cy="4880428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>117929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563544</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>45376</xdr:rowOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>45377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,14 +2570,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>426356</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>585364</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>18144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2792,13 +2613,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>145143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2858,13 +2679,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>553359</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>208644</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2936,6 +2757,182 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>191432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017D6E1A-3AE1-46D7-AAC2-0484E3E82EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="10818813"/>
+          <a:ext cx="5834062" cy="4795182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>976311</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD1CC4C-CDBE-47E6-83AD-0229CF52947D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277813" y="25646062"/>
+          <a:ext cx="5826123" cy="4786310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>909965</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF91212F-0AD1-47BF-927D-DF53601C99F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="43489563"/>
+          <a:ext cx="5767715" cy="4857749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656773</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ABFFD7-5CBD-87B7-EE54-FCE8D1F39447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="71786750"/>
+          <a:ext cx="6728961" cy="4921250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2944,22 +2941,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1008616</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>1057224</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119B01C5-3B0F-4D85-6B5F-9FAF8567CF77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E48247-9DA4-EAF9-CC77-8FEBB4FBDE99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,8 +2972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="4127501"/>
-          <a:ext cx="5866365" cy="4262437"/>
+          <a:off x="269875" y="3897313"/>
+          <a:ext cx="5914974" cy="4325937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2989,13 +2986,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1031875</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>135963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3032,15 +3029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45358</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3055,8 +3052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1841501" y="7461250"/>
-          <a:ext cx="2063749" cy="394608"/>
+          <a:off x="2119314" y="7016749"/>
+          <a:ext cx="1904999" cy="396875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3098,15 +3095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:colOff>857252</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3121,8 +3118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2055814" y="7096125"/>
-          <a:ext cx="2032000" cy="357188"/>
+          <a:off x="2341565" y="6723063"/>
+          <a:ext cx="1793874" cy="293687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3164,15 +3161,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>746125</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>912812</xdr:colOff>
+      <xdr:colOff>801687</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3187,7 +3184,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4659313" y="6365874"/>
+          <a:off x="4548188" y="6326187"/>
           <a:ext cx="2595562" cy="1174751"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3252,6 +3249,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3562,54 +3563,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="22.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="22.5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3625,7 +3626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E8BB21-30B8-4D94-B1D3-27B9DE870848}">
-  <dimension ref="B2:X34"/>
+  <dimension ref="B2:X36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -3636,696 +3637,700 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:24" ht="18.5" thickBot="1"/>
     <row r="5" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="5"/>
     </row>
     <row r="7" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="12" t="s">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="9"/>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L8" s="11"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="9"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L9" s="11"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="9"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="5"/>
     </row>
     <row r="10" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="9"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="5"/>
     </row>
     <row r="11" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L11" s="11"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="9"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L12" s="11"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="9"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L13" s="11"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="5"/>
     </row>
     <row r="14" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L14" s="11"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="11" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="9"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="5"/>
     </row>
     <row r="15" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L15" s="11"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="5"/>
     </row>
     <row r="16" spans="2:24" ht="29.5" thickBot="1">
-      <c r="L16" s="11"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="11" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="9"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="9"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L18" s="11"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="5"/>
     </row>
     <row r="19" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L19" s="11"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="5"/>
     </row>
     <row r="20" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L20" s="11"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="9"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="5"/>
     </row>
     <row r="21" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L21" s="11"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="9"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="5"/>
     </row>
     <row r="22" spans="2:24" ht="18.5" thickBot="1">
-      <c r="L22" s="11"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="9"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="5"/>
     </row>
     <row r="23" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B23" s="13" t="s">
+      <c r="L23" s="7"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" ht="18.5" thickBot="1">
+      <c r="L24" s="7"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="9"/>
-    </row>
-    <row r="24" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B24" s="10" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="9"/>
-    </row>
-    <row r="25" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B25" s="14" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="9"/>
-    </row>
-    <row r="26" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B26" s="16">
+      <c r="L27" s="7"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="17" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="9"/>
-    </row>
-    <row r="27" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B27" s="16">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="17" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B28" s="16">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B30" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="17" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="9"/>
-    </row>
-    <row r="29" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B29" s="16">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B31" s="12">
         <v>4</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="17" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="17" t="s">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="9"/>
-    </row>
-    <row r="30" spans="2:24" ht="26.5" thickBot="1">
-      <c r="B30" s="16">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="2:24" ht="26.5" thickBot="1">
+      <c r="B32" s="12">
         <v>5</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="17" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="9"/>
-    </row>
-    <row r="31" spans="2:24" ht="58.5" thickBot="1">
-      <c r="B31" s="16">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="2:24" ht="58.5" thickBot="1">
+      <c r="B33" s="12">
         <v>6</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="17" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="17" t="s">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="9"/>
-    </row>
-    <row r="32" spans="2:24" ht="104.5" thickBot="1">
-      <c r="B32" s="16">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="2:24" ht="104.5" thickBot="1">
+      <c r="B34" s="12">
         <v>7</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C34" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="17" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="17" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="9"/>
-    </row>
-    <row r="33" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B33" s="18"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B34" s="18"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B35" s="14"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="2:24" ht="18.5" thickBot="1">
+      <c r="B36" s="14"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4340,7 +4345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075E7E1-1AA8-486C-B4E0-C504231248B3}">
-  <dimension ref="B2:H211"/>
+  <dimension ref="B2:H209"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -4351,214 +4356,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="20" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="16" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="20" t="s">
-        <v>40</v>
+      <c r="B135" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="162">
+      <c r="B138" s="19">
+        <v>10001</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="19">
+        <v>28</v>
+      </c>
+      <c r="G138" s="19">
+        <v>1</v>
+      </c>
+      <c r="H138" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="204" spans="2:8">
+      <c r="B204" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8">
+      <c r="B205" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="23" t="s">
+    <row r="206" spans="2:8">
+      <c r="B206" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C206" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D206" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="E206" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="F206" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="G206" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H137" s="23" t="s">
+      <c r="H206" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="23" t="s">
+    <row r="207" spans="2:8">
+      <c r="B207" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C207" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D207" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E207" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F207" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G138" s="23" t="s">
+      <c r="G207" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H138" s="23" t="s">
+      <c r="H207" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="162">
-      <c r="B139" s="24">
+    <row r="208" spans="2:8" ht="162">
+      <c r="B208" s="19">
         <v>10001</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C208" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D208" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E139" s="24" t="s">
+      <c r="E208" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F139" s="24">
+      <c r="F208" s="19">
         <v>28</v>
       </c>
-      <c r="G139" s="24">
+      <c r="G208" s="19">
         <v>1</v>
       </c>
-      <c r="H139" s="25" t="s">
+      <c r="H208" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="21" t="s">
+    <row r="209" spans="2:8">
+      <c r="B209" t="s">
         <v>60</v>
       </c>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-    </row>
-    <row r="206" spans="2:8">
-      <c r="B206" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8">
-      <c r="B207" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8">
-      <c r="B208" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D208" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E208" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F208" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G208" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H208" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8">
-      <c r="B209" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D209" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E209" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F209" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G209" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H209" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" ht="162">
-      <c r="B210" s="24">
-        <v>10001</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D210" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E210" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F210" s="24">
-        <v>28</v>
-      </c>
-      <c r="G210" s="24">
-        <v>1</v>
-      </c>
-      <c r="H210" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8">
-      <c r="B211" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4584,109 +4589,109 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="162">
-      <c r="B8" s="24">
+      <c r="B8" s="19">
         <v>10001</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <v>28</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="21" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
